--- a/data/chatapp-startup.xlsx
+++ b/data/chatapp-startup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\cross-platform-performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B724C8A0-C062-4F54-A3B4-410211D4768E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAB47E6-AA2F-459F-A00A-25846D1AE437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/chatapp-startup.xlsx
+++ b/data/chatapp-startup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\cross-platform-performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAB47E6-AA2F-459F-A00A-25846D1AE437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA58511-9419-49EE-81F0-89B0EAEA1944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,7 +345,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
                 <a:alpha val="70000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -384,6 +385,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>716.9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1413,7 +1417,7 @@
   <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,6 +1448,9 @@
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>716.9</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">

--- a/data/chatapp-startup.xlsx
+++ b/data/chatapp-startup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\cross-platform-performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA58511-9419-49EE-81F0-89B0EAEA1944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEFDBAE-927D-421B-9041-C21C9D43C705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,6 +388,9 @@
                 <c:pt idx="0">
                   <c:v>716.9</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>257.39999999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1417,7 +1420,7 @@
   <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1465,9 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5">
+        <v>257.39999999999998</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">

--- a/data/chatapp-startup.xlsx
+++ b/data/chatapp-startup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\cross-platform-performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEFDBAE-927D-421B-9041-C21C9D43C705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A22505C-2129-4E6E-95D7-5966248C05CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,6 +391,9 @@
                 <c:pt idx="2">
                   <c:v>257.39999999999998</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>377</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1420,7 +1423,7 @@
   <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,7 +1482,9 @@
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5">
+        <v>377</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">

--- a/data/chatapp-startup.xlsx
+++ b/data/chatapp-startup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\cross-platform-performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A22505C-2129-4E6E-95D7-5966248C05CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46583B85-91D8-48E5-A905-F2531030EF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,6 +391,9 @@
                 <c:pt idx="2">
                   <c:v>257.39999999999998</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1910.2</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>377</c:v>
                 </c:pt>
@@ -1423,7 +1426,7 @@
   <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,7 +1479,9 @@
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5">
+        <v>1910.2</v>
+      </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
